--- a/proj_wikipedia/records_athletics/records_athletics_indoorF.xlsx
+++ b/proj_wikipedia/records_athletics/records_athletics_indoorF.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="82">
   <si>
     <t>Event</t>
   </si>
@@ -35,12 +35,6 @@
     <t>Ref</t>
   </si>
   <si>
-    <t>comp_doorInOut</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
     <t>60 m</t>
   </si>
   <si>
@@ -50,24 +44,12 @@
     <t>400 m</t>
   </si>
   <si>
-    <t>600 m</t>
-  </si>
-  <si>
     <t>800 m</t>
   </si>
   <si>
-    <t>1000 m</t>
-  </si>
-  <si>
     <t>1500 m</t>
   </si>
   <si>
-    <t>Mile</t>
-  </si>
-  <si>
-    <t>2000 m</t>
-  </si>
-  <si>
     <t>3000 m</t>
   </si>
   <si>
@@ -95,6 +77,9 @@
     <t>Shot put</t>
   </si>
   <si>
+    <t>Weight Throw (20 lb)</t>
+  </si>
+  <si>
     <t>Pentathlon</t>
   </si>
   <si>
@@ -104,130 +89,175 @@
     <t>4x400 m relay</t>
   </si>
   <si>
+    <t>7.89</t>
+  </si>
+  <si>
+    <t>25.30</t>
+  </si>
+  <si>
+    <t>54.21</t>
+  </si>
+  <si>
+    <t>53.34 A OT</t>
+  </si>
+  <si>
+    <t>1:58.83</t>
+  </si>
+  <si>
+    <t>4:05.17</t>
+  </si>
+  <si>
+    <t>8:29.41</t>
+  </si>
+  <si>
+    <t>9:12.35</t>
+  </si>
+  <si>
+    <t>14:51.69</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>1:29.36+</t>
-  </si>
-  <si>
-    <t>1:59.17</t>
-  </si>
-  <si>
-    <t>2:33.06</t>
-  </si>
-  <si>
-    <t>3:55.17</t>
-  </si>
-  <si>
-    <t>4:13.31</t>
-  </si>
-  <si>
-    <t>5:23.75</t>
-  </si>
-  <si>
-    <t>8:16.60</t>
-  </si>
-  <si>
-    <t>9:00.48</t>
-  </si>
-  <si>
-    <t>14:18.86</t>
+    <t>6.16 m A</t>
+  </si>
+  <si>
+    <t>14.41 m</t>
+  </si>
+  <si>
+    <t>18.02 m</t>
   </si>
   <si>
     <t>(60 m hurdles), (high jump), (shot put), (long jump), (800 m)</t>
   </si>
   <si>
-    <t>Genzebe Dibaba</t>
-  </si>
-  <si>
-    <t>Kutre Dulecha</t>
-  </si>
-  <si>
-    <t>24 February 2017</t>
-  </si>
-  <si>
-    <t>14 February 1999</t>
-  </si>
-  <si>
-    <t>1 February 2014</t>
-  </si>
-  <si>
-    <t>17 February 2016</t>
-  </si>
-  <si>
-    <t>7 February 2017</t>
-  </si>
-  <si>
-    <t>6 February 2014</t>
-  </si>
-  <si>
-    <t>15 February 2014</t>
-  </si>
-  <si>
-    <t>19 February 2015</t>
-  </si>
-  <si>
-    <t>Meeting Ville de Madrid</t>
+    <t>Ivy Atieno</t>
+  </si>
+  <si>
+    <t>Joyce Odhiambo</t>
+  </si>
+  <si>
+    <t>Ruth Waithera</t>
+  </si>
+  <si>
+    <t>Pamela Jelimo</t>
+  </si>
+  <si>
+    <t>Irene Jelagat</t>
+  </si>
+  <si>
+    <t>Hellen Obiri</t>
+  </si>
+  <si>
+    <t>Vivian Cheruiyot</t>
+  </si>
+  <si>
+    <t>Tegla Loroupe</t>
+  </si>
+  <si>
+    <t>Esther Otieno</t>
+  </si>
+  <si>
+    <t>Linda Oseso</t>
+  </si>
+  <si>
+    <t>15 January 2012</t>
+  </si>
+  <si>
+    <t>6 March 1987</t>
+  </si>
+  <si>
+    <t>10 March 1984</t>
+  </si>
+  <si>
+    <t>3 March 1984</t>
+  </si>
+  <si>
+    <t>11 March 2012</t>
+  </si>
+  <si>
+    <t>22 February 2011</t>
+  </si>
+  <si>
+    <t>18 February 2017</t>
+  </si>
+  <si>
+    <t>20 February 2010</t>
+  </si>
+  <si>
+    <t>13 February 1999</t>
+  </si>
+  <si>
+    <t>22 February 1980</t>
+  </si>
+  <si>
+    <t>29 January 2011</t>
+  </si>
+  <si>
+    <t>25 February 2011</t>
+  </si>
+  <si>
+    <t>World Championships</t>
+  </si>
+  <si>
+    <t>GE Galan</t>
+  </si>
+  <si>
+    <t>Birmingham Indoor Grand Prix</t>
   </si>
   <si>
     <t>Aviva Indoor Grand Prix</t>
   </si>
   <si>
-    <t>Weltklasse in Karlsruhe</t>
-  </si>
-  <si>
-    <t>Globen Galan</t>
-  </si>
-  <si>
-    <t>Míting Internacional de Catalunya</t>
-  </si>
-  <si>
-    <t>XL Galan</t>
-  </si>
-  <si>
-    <t>Madrid, Spain</t>
+    <t>UW Invitational</t>
+  </si>
+  <si>
+    <t>MPSF Indoor Track &amp; Field Championships</t>
+  </si>
+  <si>
+    <t>Leverkusen, Germany</t>
+  </si>
+  <si>
+    <t>Indianapolis, United States</t>
+  </si>
+  <si>
+    <t>Syracuse, United States</t>
+  </si>
+  <si>
+    <t>Flagstaff, United States</t>
+  </si>
+  <si>
+    <t>Istanbul, Turkey</t>
+  </si>
+  <si>
+    <t>Stockholm, Sweden</t>
   </si>
   <si>
     <t>Birmingham, United Kingdom</t>
   </si>
   <si>
-    <t>Karlsruhe, Germany</t>
-  </si>
-  <si>
-    <t>Stockholm, Sweden</t>
-  </si>
-  <si>
-    <t>Sabadell, Spain</t>
-  </si>
-  <si>
-    <t>[53]</t>
-  </si>
-  <si>
-    <t>[54]</t>
-  </si>
-  <si>
-    <t>[55]</t>
-  </si>
-  <si>
-    <t>[56]</t>
-  </si>
-  <si>
-    <t>[57]</t>
-  </si>
-  <si>
-    <t>[58]</t>
-  </si>
-  <si>
-    <t>[59]</t>
-  </si>
-  <si>
-    <t>[60]</t>
-  </si>
-  <si>
-    <t>indoor</t>
-  </si>
-  <si>
-    <t>f</t>
+    <t>Dortmund, Germany</t>
+  </si>
+  <si>
+    <t>Pocatello, United States</t>
+  </si>
+  <si>
+    <t>Seattle, United States</t>
+  </si>
+  <si>
+    <t>[71]</t>
+  </si>
+  <si>
+    <t>[72]</t>
+  </si>
+  <si>
+    <t>[73]</t>
+  </si>
+  <si>
+    <t>[74]</t>
+  </si>
+  <si>
+    <t>[75]</t>
   </si>
 </sst>
 </file>
@@ -300,649 +330,465 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I3" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I4" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
         <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" t="s">
-        <v>70</v>
-      </c>
-      <c r="I5" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
         <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I6" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="G7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H7" t="s">
-        <v>70</v>
-      </c>
-      <c r="I7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="G8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" t="s">
-        <v>70</v>
-      </c>
-      <c r="I8" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" t="s">
-        <v>70</v>
-      </c>
-      <c r="I10" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" t="s">
-        <v>70</v>
-      </c>
-      <c r="I12" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" t="s">
-        <v>70</v>
-      </c>
-      <c r="I13" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" t="s">
-        <v>70</v>
-      </c>
-      <c r="I14" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" t="s">
-        <v>70</v>
-      </c>
-      <c r="I15" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" t="s">
-        <v>70</v>
-      </c>
-      <c r="I16" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" t="s">
-        <v>70</v>
-      </c>
-      <c r="I17" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" t="s">
-        <v>70</v>
-      </c>
-      <c r="I18" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" t="s">
-        <v>70</v>
-      </c>
-      <c r="I19" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" t="s">
-        <v>70</v>
-      </c>
-      <c r="I20" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" t="s">
-        <v>70</v>
-      </c>
-      <c r="I21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" t="s">
-        <v>30</v>
-      </c>
-      <c r="H22" t="s">
-        <v>70</v>
-      </c>
-      <c r="I22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" t="s">
-        <v>30</v>
-      </c>
-      <c r="H23" t="s">
-        <v>70</v>
-      </c>
-      <c r="I23" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
